--- a/시장분석용_정보/시장분석용_4723053500.xlsx
+++ b/시장분석용_정보/시장분석용_4723053500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1288</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -708,10 +612,10 @@
         <v>5058205490</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4723053500</v>
@@ -720,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>330587978</v>
@@ -732,117 +636,69 @@
         <v>67599</v>
       </c>
       <c r="O2">
-        <v>81.81</v>
+        <v>2.02</v>
       </c>
       <c r="P2">
-        <v>18.19</v>
+        <v>5.67</v>
       </c>
       <c r="Q2">
-        <v>8.85</v>
+        <v>13.42</v>
       </c>
       <c r="R2">
-        <v>25.33</v>
+        <v>13.58</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T2">
-        <v>12.63</v>
+        <v>2.35</v>
       </c>
       <c r="U2">
-        <v>21.89</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V2">
-        <v>18.46</v>
+        <v>13.02</v>
       </c>
       <c r="W2">
-        <v>4.84</v>
+        <v>15.66</v>
       </c>
       <c r="X2">
-        <v>30.47</v>
+        <v>9.74</v>
       </c>
       <c r="Y2">
-        <v>45.88</v>
+        <v>0.39</v>
       </c>
       <c r="Z2">
-        <v>13.12</v>
+        <v>3.82</v>
       </c>
       <c r="AA2">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.48</v>
+        <v>27.73</v>
       </c>
       <c r="AC2">
-        <v>2.76</v>
+        <v>39.34</v>
       </c>
       <c r="AD2">
-        <v>1.57</v>
+        <v>21.5</v>
       </c>
       <c r="AE2">
-        <v>2.02</v>
+        <v>5.21</v>
       </c>
       <c r="AF2">
-        <v>5.67</v>
-      </c>
-      <c r="AG2">
-        <v>13.42</v>
-      </c>
-      <c r="AH2">
-        <v>13.58</v>
-      </c>
-      <c r="AI2">
-        <v>16</v>
-      </c>
-      <c r="AJ2">
-        <v>2.35</v>
-      </c>
-      <c r="AK2">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AL2">
-        <v>13.02</v>
-      </c>
-      <c r="AM2">
-        <v>15.66</v>
-      </c>
-      <c r="AN2">
-        <v>9.74</v>
-      </c>
-      <c r="AO2">
-        <v>0.39</v>
-      </c>
-      <c r="AP2">
-        <v>3.82</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>27.73</v>
-      </c>
-      <c r="AS2">
-        <v>39.34</v>
-      </c>
-      <c r="AT2">
-        <v>21.5</v>
-      </c>
-      <c r="AU2">
-        <v>5.21</v>
-      </c>
-      <c r="AV2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1957</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202001</v>
@@ -854,10 +710,10 @@
         <v>6369700167</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>4723053500</v>
@@ -866,7 +722,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>13697675</v>
@@ -878,117 +734,69 @@
         <v>32951</v>
       </c>
       <c r="O3">
-        <v>88.45</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>10.59</v>
       </c>
       <c r="R3">
-        <v>15.05</v>
+        <v>13.56</v>
       </c>
       <c r="S3">
-        <v>22.21</v>
+        <v>18.64</v>
       </c>
       <c r="T3">
-        <v>16.26</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
-        <v>17.41</v>
+        <v>4.53</v>
       </c>
       <c r="V3">
-        <v>17.53</v>
+        <v>5.08</v>
       </c>
       <c r="W3">
-        <v>11.55</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="X3">
-        <v>28.95</v>
+        <v>35.15</v>
       </c>
       <c r="Y3">
-        <v>45.04</v>
+        <v>0.86</v>
       </c>
       <c r="Z3">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>41.45</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>43.07</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AF3">
-        <v>1.52</v>
-      </c>
-      <c r="AG3">
-        <v>10.59</v>
-      </c>
-      <c r="AH3">
-        <v>13.56</v>
-      </c>
-      <c r="AI3">
-        <v>18.64</v>
-      </c>
-      <c r="AJ3">
-        <v>1.65</v>
-      </c>
-      <c r="AK3">
-        <v>4.53</v>
-      </c>
-      <c r="AL3">
-        <v>5.08</v>
-      </c>
-      <c r="AM3">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AN3">
-        <v>35.15</v>
-      </c>
-      <c r="AO3">
-        <v>0.86</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>41.45</v>
-      </c>
-      <c r="AS3">
-        <v>43.07</v>
-      </c>
-      <c r="AT3">
-        <v>8.44</v>
-      </c>
-      <c r="AU3">
-        <v>3.03</v>
-      </c>
-      <c r="AV3">
         <v>3.15</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>3335</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202002</v>
@@ -1000,10 +808,10 @@
         <v>5058205490</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4723053500</v>
@@ -1012,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>175419844</v>
@@ -1024,117 +832,69 @@
         <v>51405</v>
       </c>
       <c r="O4">
-        <v>84.76000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="P4">
-        <v>15.24</v>
+        <v>2.88</v>
       </c>
       <c r="Q4">
-        <v>7.17</v>
+        <v>15.9</v>
       </c>
       <c r="R4">
-        <v>16.73</v>
+        <v>8.99</v>
       </c>
       <c r="S4">
-        <v>12.1</v>
+        <v>8.31</v>
       </c>
       <c r="T4">
-        <v>20.22</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>17.8</v>
+        <v>3.74</v>
       </c>
       <c r="V4">
-        <v>17.91</v>
+        <v>11.27</v>
       </c>
       <c r="W4">
-        <v>8.07</v>
+        <v>22.22</v>
       </c>
       <c r="X4">
-        <v>26.72</v>
+        <v>19.79</v>
       </c>
       <c r="Y4">
-        <v>48.69</v>
+        <v>0.9</v>
       </c>
       <c r="Z4">
-        <v>13.75</v>
+        <v>4.78</v>
       </c>
       <c r="AA4">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.82</v>
+        <v>25.26</v>
       </c>
       <c r="AC4">
-        <v>1.24</v>
+        <v>47.18</v>
       </c>
       <c r="AD4">
-        <v>5.1</v>
+        <v>12.11</v>
       </c>
       <c r="AE4">
-        <v>0.91</v>
+        <v>9.69</v>
       </c>
       <c r="AF4">
-        <v>2.88</v>
-      </c>
-      <c r="AG4">
-        <v>15.9</v>
-      </c>
-      <c r="AH4">
-        <v>8.99</v>
-      </c>
-      <c r="AI4">
-        <v>8.31</v>
-      </c>
-      <c r="AJ4">
-        <v>6</v>
-      </c>
-      <c r="AK4">
-        <v>3.74</v>
-      </c>
-      <c r="AL4">
-        <v>11.27</v>
-      </c>
-      <c r="AM4">
-        <v>22.22</v>
-      </c>
-      <c r="AN4">
-        <v>19.79</v>
-      </c>
-      <c r="AO4">
-        <v>0.9</v>
-      </c>
-      <c r="AP4">
-        <v>4.78</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>25.26</v>
-      </c>
-      <c r="AS4">
-        <v>47.18</v>
-      </c>
-      <c r="AT4">
-        <v>12.11</v>
-      </c>
-      <c r="AU4">
-        <v>9.69</v>
-      </c>
-      <c r="AV4">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3990</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202002</v>
@@ -1146,10 +906,10 @@
         <v>6369700167</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4723053500</v>
@@ -1158,7 +918,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>11818334</v>
@@ -1170,117 +930,69 @@
         <v>32706</v>
       </c>
       <c r="O5">
-        <v>91.7</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="R5">
-        <v>26.18</v>
+        <v>13.56</v>
       </c>
       <c r="S5">
-        <v>32</v>
+        <v>32.45</v>
       </c>
       <c r="T5">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>10.95</v>
+        <v>3.2</v>
       </c>
       <c r="V5">
-        <v>14.41</v>
+        <v>8.49</v>
       </c>
       <c r="W5">
-        <v>8.300000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="X5">
-        <v>30.71</v>
+        <v>24.35</v>
       </c>
       <c r="Y5">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>30.69</v>
+        <v>2.57</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>39.02</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>12.45</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>7.49</v>
-      </c>
-      <c r="AH5">
-        <v>13.56</v>
-      </c>
-      <c r="AI5">
-        <v>32.45</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>3.2</v>
-      </c>
-      <c r="AL5">
-        <v>8.49</v>
-      </c>
-      <c r="AM5">
-        <v>10.45</v>
-      </c>
-      <c r="AN5">
-        <v>24.35</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>2.57</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>43.2</v>
-      </c>
-      <c r="AS5">
-        <v>39.02</v>
-      </c>
-      <c r="AT5">
-        <v>12.45</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>2.77</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>5345</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202003</v>
@@ -1292,10 +1004,10 @@
         <v>5058205490</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>4723053500</v>
@@ -1304,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <v>195955391</v>
@@ -1316,117 +1028,69 @@
         <v>70642</v>
       </c>
       <c r="O6">
-        <v>88.73999999999999</v>
+        <v>5.41</v>
       </c>
       <c r="P6">
-        <v>11.26</v>
+        <v>5.49</v>
       </c>
       <c r="Q6">
-        <v>1.97</v>
+        <v>15.63</v>
       </c>
       <c r="R6">
-        <v>23.41</v>
+        <v>12.61</v>
       </c>
       <c r="S6">
-        <v>22.58</v>
+        <v>11.06</v>
       </c>
       <c r="T6">
-        <v>21.29</v>
+        <v>3.14</v>
       </c>
       <c r="U6">
-        <v>9.359999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="V6">
-        <v>12.11</v>
+        <v>9.15</v>
       </c>
       <c r="W6">
-        <v>9.279999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="X6">
-        <v>29.65</v>
+        <v>20.03</v>
       </c>
       <c r="Y6">
-        <v>45.13</v>
+        <v>1.57</v>
       </c>
       <c r="Z6">
-        <v>15.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA6">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4.48</v>
+        <v>33.16</v>
       </c>
       <c r="AC6">
-        <v>0.38</v>
+        <v>52.84</v>
       </c>
       <c r="AD6">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE6">
-        <v>5.41</v>
+        <v>0.35</v>
       </c>
       <c r="AF6">
-        <v>5.49</v>
-      </c>
-      <c r="AG6">
-        <v>15.63</v>
-      </c>
-      <c r="AH6">
-        <v>12.61</v>
-      </c>
-      <c r="AI6">
-        <v>11.06</v>
-      </c>
-      <c r="AJ6">
-        <v>3.14</v>
-      </c>
-      <c r="AK6">
-        <v>7.85</v>
-      </c>
-      <c r="AL6">
-        <v>9.15</v>
-      </c>
-      <c r="AM6">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AN6">
-        <v>20.03</v>
-      </c>
-      <c r="AO6">
-        <v>1.57</v>
-      </c>
-      <c r="AP6">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>33.16</v>
-      </c>
-      <c r="AS6">
-        <v>52.84</v>
-      </c>
-      <c r="AT6">
-        <v>7.9</v>
-      </c>
-      <c r="AU6">
-        <v>0.35</v>
-      </c>
-      <c r="AV6">
         <v>3.63</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5995</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202003</v>
@@ -1438,10 +1102,10 @@
         <v>6369700167</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>4723053500</v>
@@ -1450,7 +1114,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>9149789</v>
@@ -1462,117 +1126,69 @@
         <v>30340</v>
       </c>
       <c r="O7">
-        <v>78.12</v>
+        <v>2.44</v>
       </c>
       <c r="P7">
-        <v>21.88</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>6.76</v>
       </c>
       <c r="R7">
-        <v>15.82</v>
+        <v>12.03</v>
       </c>
       <c r="S7">
-        <v>21.09</v>
+        <v>28.49</v>
       </c>
       <c r="T7">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>13.66</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>22.17</v>
+        <v>11.48</v>
       </c>
       <c r="W7">
-        <v>21.88</v>
+        <v>3.53</v>
       </c>
       <c r="X7">
-        <v>25.8</v>
+        <v>35.27</v>
       </c>
       <c r="Y7">
-        <v>64.47</v>
+        <v>2.43</v>
       </c>
       <c r="Z7">
-        <v>9.73</v>
+        <v>1.81</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>47.91</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>36.19</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="AE7">
-        <v>2.44</v>
+        <v>6.9</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>6.76</v>
-      </c>
-      <c r="AH7">
-        <v>12.03</v>
-      </c>
-      <c r="AI7">
-        <v>28.49</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>11.48</v>
-      </c>
-      <c r="AM7">
-        <v>3.53</v>
-      </c>
-      <c r="AN7">
-        <v>35.27</v>
-      </c>
-      <c r="AO7">
-        <v>2.43</v>
-      </c>
-      <c r="AP7">
-        <v>1.81</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>47.91</v>
-      </c>
-      <c r="AS7">
-        <v>36.19</v>
-      </c>
-      <c r="AT7">
-        <v>4.76</v>
-      </c>
-      <c r="AU7">
-        <v>6.9</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>7361</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202004</v>
@@ -1584,10 +1200,10 @@
         <v>5058205490</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>4723053500</v>
@@ -1596,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L8">
         <v>149725534</v>
@@ -1608,117 +1224,69 @@
         <v>48953</v>
       </c>
       <c r="O8">
-        <v>82.64</v>
+        <v>3.03</v>
       </c>
       <c r="P8">
-        <v>17.36</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>4.85</v>
+        <v>13.08</v>
       </c>
       <c r="R8">
-        <v>24.84</v>
+        <v>16.68</v>
       </c>
       <c r="S8">
-        <v>12.8</v>
+        <v>8.5</v>
       </c>
       <c r="T8">
-        <v>14.43</v>
+        <v>3.21</v>
       </c>
       <c r="U8">
-        <v>18.39</v>
+        <v>7.2</v>
       </c>
       <c r="V8">
-        <v>14.14</v>
+        <v>13.53</v>
       </c>
       <c r="W8">
-        <v>10.54</v>
+        <v>14.8</v>
       </c>
       <c r="X8">
-        <v>42.82</v>
+        <v>10.99</v>
       </c>
       <c r="Y8">
-        <v>36.31</v>
+        <v>0.04</v>
       </c>
       <c r="Z8">
-        <v>10.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA8">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.59</v>
+        <v>26.56</v>
       </c>
       <c r="AC8">
-        <v>4.23</v>
+        <v>57.27</v>
       </c>
       <c r="AD8">
-        <v>1.22</v>
+        <v>8.81</v>
       </c>
       <c r="AE8">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="AF8">
-        <v>9</v>
-      </c>
-      <c r="AG8">
-        <v>13.08</v>
-      </c>
-      <c r="AH8">
-        <v>16.68</v>
-      </c>
-      <c r="AI8">
-        <v>8.5</v>
-      </c>
-      <c r="AJ8">
-        <v>3.21</v>
-      </c>
-      <c r="AK8">
-        <v>7.2</v>
-      </c>
-      <c r="AL8">
-        <v>13.53</v>
-      </c>
-      <c r="AM8">
-        <v>14.8</v>
-      </c>
-      <c r="AN8">
-        <v>10.99</v>
-      </c>
-      <c r="AO8">
-        <v>0.04</v>
-      </c>
-      <c r="AP8">
-        <v>1.4</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>26.56</v>
-      </c>
-      <c r="AS8">
-        <v>57.27</v>
-      </c>
-      <c r="AT8">
-        <v>8.81</v>
-      </c>
-      <c r="AU8">
-        <v>3.26</v>
-      </c>
-      <c r="AV8">
         <v>2.66</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>8013</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202004</v>
@@ -1730,10 +1298,10 @@
         <v>6369700167</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>4723053500</v>
@@ -1742,7 +1310,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>15102661</v>
@@ -1754,117 +1322,69 @@
         <v>31367</v>
       </c>
       <c r="O9">
-        <v>88.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.07</v>
+        <v>2.58</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="R9">
-        <v>21.84</v>
+        <v>17.77</v>
       </c>
       <c r="S9">
-        <v>12.2</v>
+        <v>21.21</v>
       </c>
       <c r="T9">
-        <v>13.48</v>
+        <v>3.62</v>
       </c>
       <c r="U9">
-        <v>17.29</v>
+        <v>0.65</v>
       </c>
       <c r="V9">
-        <v>24.14</v>
+        <v>4.67</v>
       </c>
       <c r="W9">
-        <v>11.07</v>
+        <v>7.39</v>
       </c>
       <c r="X9">
-        <v>20.68</v>
+        <v>38.45</v>
       </c>
       <c r="Y9">
-        <v>50.77</v>
+        <v>1.22</v>
       </c>
       <c r="Z9">
-        <v>28.55</v>
+        <v>2.02</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>42.13</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>40.98</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>9.82</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AF9">
-        <v>2.58</v>
-      </c>
-      <c r="AG9">
-        <v>3.64</v>
-      </c>
-      <c r="AH9">
-        <v>17.77</v>
-      </c>
-      <c r="AI9">
-        <v>21.21</v>
-      </c>
-      <c r="AJ9">
-        <v>3.62</v>
-      </c>
-      <c r="AK9">
-        <v>0.65</v>
-      </c>
-      <c r="AL9">
-        <v>4.67</v>
-      </c>
-      <c r="AM9">
-        <v>7.39</v>
-      </c>
-      <c r="AN9">
-        <v>38.45</v>
-      </c>
-      <c r="AO9">
-        <v>1.22</v>
-      </c>
-      <c r="AP9">
         <v>2.02</v>
       </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>42.13</v>
-      </c>
-      <c r="AS9">
-        <v>40.98</v>
-      </c>
-      <c r="AT9">
-        <v>9.82</v>
-      </c>
-      <c r="AU9">
-        <v>1.81</v>
-      </c>
-      <c r="AV9">
-        <v>2.02</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>9389</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202005</v>
@@ -1876,10 +1396,10 @@
         <v>5058205490</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>4723053500</v>
@@ -1888,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10">
         <v>257044988</v>
@@ -1900,117 +1420,69 @@
         <v>70837</v>
       </c>
       <c r="O10">
-        <v>86.41</v>
+        <v>3.38</v>
       </c>
       <c r="P10">
-        <v>13.59</v>
+        <v>2.23</v>
       </c>
       <c r="Q10">
-        <v>6.14</v>
+        <v>9.58</v>
       </c>
       <c r="R10">
-        <v>23.89</v>
+        <v>9.35</v>
       </c>
       <c r="S10">
-        <v>9.66</v>
+        <v>15.11</v>
       </c>
       <c r="T10">
-        <v>26.11</v>
+        <v>0.71</v>
       </c>
       <c r="U10">
-        <v>8.65</v>
+        <v>6.03</v>
       </c>
       <c r="V10">
-        <v>19.6</v>
+        <v>21.86</v>
       </c>
       <c r="W10">
-        <v>5.95</v>
+        <v>17.35</v>
       </c>
       <c r="X10">
-        <v>31.04</v>
+        <v>14.4</v>
       </c>
       <c r="Y10">
-        <v>43.41</v>
+        <v>0.02</v>
       </c>
       <c r="Z10">
-        <v>19.25</v>
+        <v>0.57</v>
       </c>
       <c r="AA10">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.85</v>
+        <v>22.32</v>
       </c>
       <c r="AC10">
-        <v>1.4</v>
+        <v>42.61</v>
       </c>
       <c r="AD10">
-        <v>1.53</v>
+        <v>25.77</v>
       </c>
       <c r="AE10">
-        <v>3.38</v>
+        <v>2.03</v>
       </c>
       <c r="AF10">
-        <v>2.23</v>
-      </c>
-      <c r="AG10">
-        <v>9.58</v>
-      </c>
-      <c r="AH10">
-        <v>9.35</v>
-      </c>
-      <c r="AI10">
-        <v>15.11</v>
-      </c>
-      <c r="AJ10">
-        <v>0.71</v>
-      </c>
-      <c r="AK10">
-        <v>6.03</v>
-      </c>
-      <c r="AL10">
-        <v>21.86</v>
-      </c>
-      <c r="AM10">
-        <v>17.35</v>
-      </c>
-      <c r="AN10">
-        <v>14.4</v>
-      </c>
-      <c r="AO10">
-        <v>0.02</v>
-      </c>
-      <c r="AP10">
-        <v>0.57</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>22.32</v>
-      </c>
-      <c r="AS10">
-        <v>42.61</v>
-      </c>
-      <c r="AT10">
-        <v>25.77</v>
-      </c>
-      <c r="AU10">
-        <v>2.03</v>
-      </c>
-      <c r="AV10">
         <v>6.68</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>10052</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202005</v>
@@ -2022,10 +1494,10 @@
         <v>6369700167</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>4723053500</v>
@@ -2034,7 +1506,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>15785968</v>
@@ -2046,117 +1518,69 @@
         <v>33463</v>
       </c>
       <c r="O11">
-        <v>80.34</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>19.66</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="R11">
-        <v>20.27</v>
+        <v>10.41</v>
       </c>
       <c r="S11">
-        <v>11.55</v>
+        <v>34.88</v>
       </c>
       <c r="T11">
-        <v>17.23</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>20.27</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>13.43</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W11">
-        <v>17.25</v>
+        <v>9.74</v>
       </c>
       <c r="X11">
-        <v>19.62</v>
+        <v>27.85</v>
       </c>
       <c r="Y11">
-        <v>58.73</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>21.65</v>
+        <v>1.94</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>38.57</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>47.87</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>6.13</v>
-      </c>
-      <c r="AH11">
-        <v>10.41</v>
-      </c>
-      <c r="AI11">
-        <v>34.88</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>1.8</v>
-      </c>
-      <c r="AL11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>9.74</v>
-      </c>
-      <c r="AN11">
-        <v>27.85</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>1.94</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>38.57</v>
-      </c>
-      <c r="AS11">
-        <v>47.87</v>
-      </c>
-      <c r="AT11">
-        <v>6.88</v>
-      </c>
-      <c r="AU11">
-        <v>4.1</v>
-      </c>
-      <c r="AV11">
         <v>0.64</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>11431</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202006</v>
@@ -2168,10 +1592,10 @@
         <v>5058205490</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>4723053500</v>
@@ -2180,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>294438367</v>
@@ -2192,117 +1616,69 @@
         <v>69321</v>
       </c>
       <c r="O12">
-        <v>94.31</v>
+        <v>2.72</v>
       </c>
       <c r="P12">
-        <v>5.69</v>
+        <v>2.36</v>
       </c>
       <c r="Q12">
-        <v>2.18</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="R12">
-        <v>24.31</v>
+        <v>17.87</v>
       </c>
       <c r="S12">
-        <v>21.55</v>
+        <v>9.02</v>
       </c>
       <c r="T12">
-        <v>22.46</v>
+        <v>2.13</v>
       </c>
       <c r="U12">
-        <v>10.65</v>
+        <v>6.2</v>
       </c>
       <c r="V12">
-        <v>15.34</v>
+        <v>19.81</v>
       </c>
       <c r="W12">
-        <v>3.51</v>
+        <v>16.99</v>
       </c>
       <c r="X12">
-        <v>33.79</v>
+        <v>14.11</v>
       </c>
       <c r="Y12">
-        <v>46.05</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z12">
-        <v>11.69</v>
+        <v>0.18</v>
       </c>
       <c r="AA12">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>2.78</v>
+        <v>18.21</v>
       </c>
       <c r="AC12">
-        <v>3.47</v>
+        <v>51.84</v>
       </c>
       <c r="AD12">
-        <v>0.79</v>
+        <v>21.57</v>
       </c>
       <c r="AE12">
-        <v>2.72</v>
+        <v>6.36</v>
       </c>
       <c r="AF12">
-        <v>2.36</v>
-      </c>
-      <c r="AG12">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AH12">
-        <v>17.87</v>
-      </c>
-      <c r="AI12">
-        <v>9.02</v>
-      </c>
-      <c r="AJ12">
-        <v>2.13</v>
-      </c>
-      <c r="AK12">
-        <v>6.2</v>
-      </c>
-      <c r="AL12">
-        <v>19.81</v>
-      </c>
-      <c r="AM12">
-        <v>16.99</v>
-      </c>
-      <c r="AN12">
-        <v>14.11</v>
-      </c>
-      <c r="AO12">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AP12">
-        <v>0.18</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>18.21</v>
-      </c>
-      <c r="AS12">
-        <v>51.84</v>
-      </c>
-      <c r="AT12">
-        <v>21.57</v>
-      </c>
-      <c r="AU12">
-        <v>6.36</v>
-      </c>
-      <c r="AV12">
         <v>1.04</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>12098</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202006</v>
@@ -2314,10 +1690,10 @@
         <v>6369700167</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>4723053500</v>
@@ -2326,7 +1702,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <v>16223772</v>
@@ -2338,117 +1714,69 @@
         <v>32328</v>
       </c>
       <c r="O13">
-        <v>92.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>7.35</v>
+        <v>0.7</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="R13">
-        <v>22.69</v>
+        <v>7.28</v>
       </c>
       <c r="S13">
-        <v>22.32</v>
+        <v>24.39</v>
       </c>
       <c r="T13">
-        <v>15.53</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>15.52</v>
+        <v>2.83</v>
       </c>
       <c r="V13">
-        <v>16.58</v>
+        <v>8.56</v>
       </c>
       <c r="W13">
-        <v>7.35</v>
+        <v>11.36</v>
       </c>
       <c r="X13">
-        <v>16.76</v>
+        <v>41.8</v>
       </c>
       <c r="Y13">
-        <v>52.3</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>30.93</v>
+        <v>3.86</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>27.87</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>50.83</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>10.51</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="AF13">
-        <v>0.7</v>
-      </c>
-      <c r="AG13">
-        <v>3.08</v>
-      </c>
-      <c r="AH13">
-        <v>7.28</v>
-      </c>
-      <c r="AI13">
-        <v>24.39</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>2.83</v>
-      </c>
-      <c r="AL13">
-        <v>8.56</v>
-      </c>
-      <c r="AM13">
-        <v>11.36</v>
-      </c>
-      <c r="AN13">
-        <v>41.8</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>3.86</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>27.87</v>
-      </c>
-      <c r="AS13">
-        <v>50.83</v>
-      </c>
-      <c r="AT13">
-        <v>10.51</v>
-      </c>
-      <c r="AU13">
-        <v>3.63</v>
-      </c>
-      <c r="AV13">
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>13480</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202007</v>
@@ -2460,10 +1788,10 @@
         <v>5058205490</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>4723053500</v>
@@ -2472,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14">
         <v>274617137</v>
@@ -2484,117 +1812,69 @@
         <v>64289</v>
       </c>
       <c r="O14">
-        <v>91.01000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="P14">
-        <v>8.99</v>
+        <v>4.52</v>
       </c>
       <c r="Q14">
-        <v>3.87</v>
+        <v>14.91</v>
       </c>
       <c r="R14">
-        <v>19.61</v>
+        <v>6.56</v>
       </c>
       <c r="S14">
-        <v>21.91</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="T14">
-        <v>18.79</v>
+        <v>2.64</v>
       </c>
       <c r="U14">
-        <v>9.09</v>
+        <v>8.41</v>
       </c>
       <c r="V14">
-        <v>21.6</v>
+        <v>13.72</v>
       </c>
       <c r="W14">
-        <v>5.12</v>
+        <v>21.48</v>
       </c>
       <c r="X14">
-        <v>41.39</v>
+        <v>17.73</v>
       </c>
       <c r="Y14">
-        <v>35.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z14">
-        <v>14.1</v>
+        <v>2.69</v>
       </c>
       <c r="AA14">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>2.21</v>
+        <v>16.13</v>
       </c>
       <c r="AC14">
-        <v>2.16</v>
+        <v>49.29</v>
       </c>
       <c r="AD14">
-        <v>1.49</v>
+        <v>17.41</v>
       </c>
       <c r="AE14">
-        <v>1.82</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AF14">
-        <v>4.52</v>
-      </c>
-      <c r="AG14">
-        <v>14.91</v>
-      </c>
-      <c r="AH14">
-        <v>6.56</v>
-      </c>
-      <c r="AI14">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AJ14">
-        <v>2.64</v>
-      </c>
-      <c r="AK14">
-        <v>8.41</v>
-      </c>
-      <c r="AL14">
-        <v>13.72</v>
-      </c>
-      <c r="AM14">
-        <v>21.48</v>
-      </c>
-      <c r="AN14">
-        <v>17.73</v>
-      </c>
-      <c r="AO14">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AP14">
-        <v>2.69</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>16.13</v>
-      </c>
-      <c r="AS14">
-        <v>49.29</v>
-      </c>
-      <c r="AT14">
-        <v>17.41</v>
-      </c>
-      <c r="AU14">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AV14">
         <v>5.97</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>14146</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202007</v>
@@ -2606,10 +1886,10 @@
         <v>6369700167</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>4723053500</v>
@@ -2618,7 +1898,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L15">
         <v>15308187</v>
@@ -2630,117 +1910,69 @@
         <v>27217</v>
       </c>
       <c r="O15">
-        <v>92.84</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>7.16</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="R15">
-        <v>12.61</v>
+        <v>15.03</v>
       </c>
       <c r="S15">
-        <v>11.16</v>
+        <v>29.94</v>
       </c>
       <c r="T15">
-        <v>32.54</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>13.69</v>
+        <v>2.22</v>
       </c>
       <c r="V15">
-        <v>22.84</v>
+        <v>3.99</v>
       </c>
       <c r="W15">
-        <v>7.16</v>
+        <v>5.63</v>
       </c>
       <c r="X15">
-        <v>39.21</v>
+        <v>33.94</v>
       </c>
       <c r="Y15">
-        <v>32.87</v>
+        <v>1.63</v>
       </c>
       <c r="Z15">
-        <v>27.92</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>35.11</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>43.94</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>16.56</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF15">
-        <v>2.8</v>
-      </c>
-      <c r="AG15">
-        <v>6.45</v>
-      </c>
-      <c r="AH15">
-        <v>15.03</v>
-      </c>
-      <c r="AI15">
-        <v>29.94</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>2.22</v>
-      </c>
-      <c r="AL15">
-        <v>3.99</v>
-      </c>
-      <c r="AM15">
-        <v>5.63</v>
-      </c>
-      <c r="AN15">
-        <v>33.94</v>
-      </c>
-      <c r="AO15">
-        <v>1.63</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>35.11</v>
-      </c>
-      <c r="AS15">
-        <v>43.94</v>
-      </c>
-      <c r="AT15">
-        <v>16.56</v>
-      </c>
-      <c r="AU15">
-        <v>1.25</v>
-      </c>
-      <c r="AV15">
         <v>1.52</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>15532</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202008</v>
@@ -2752,10 +1984,10 @@
         <v>5058205490</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>4723053500</v>
@@ -2764,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L16">
         <v>257809193</v>
@@ -2776,117 +2008,69 @@
         <v>63891</v>
       </c>
       <c r="O16">
-        <v>88.61</v>
+        <v>0.49</v>
       </c>
       <c r="P16">
-        <v>11.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q16">
-        <v>3.62</v>
+        <v>5.91</v>
       </c>
       <c r="R16">
-        <v>22.26</v>
+        <v>12.24</v>
       </c>
       <c r="S16">
-        <v>15.83</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="T16">
-        <v>20.95</v>
+        <v>1.38</v>
       </c>
       <c r="U16">
-        <v>13.78</v>
+        <v>9.6</v>
       </c>
       <c r="V16">
-        <v>16.09</v>
+        <v>14.87</v>
       </c>
       <c r="W16">
-        <v>7.47</v>
+        <v>20.38</v>
       </c>
       <c r="X16">
-        <v>31.6</v>
+        <v>22.07</v>
       </c>
       <c r="Y16">
-        <v>46.92</v>
+        <v>0.15</v>
       </c>
       <c r="Z16">
-        <v>14.34</v>
+        <v>3.92</v>
       </c>
       <c r="AA16">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>2.99</v>
+        <v>21.27</v>
       </c>
       <c r="AC16">
-        <v>2.12</v>
+        <v>42.07</v>
       </c>
       <c r="AD16">
-        <v>0.85</v>
+        <v>21.16</v>
       </c>
       <c r="AE16">
-        <v>0.49</v>
+        <v>6.16</v>
       </c>
       <c r="AF16">
-        <v>3.35</v>
-      </c>
-      <c r="AG16">
-        <v>5.91</v>
-      </c>
-      <c r="AH16">
-        <v>12.24</v>
-      </c>
-      <c r="AI16">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AJ16">
-        <v>1.38</v>
-      </c>
-      <c r="AK16">
-        <v>9.6</v>
-      </c>
-      <c r="AL16">
-        <v>14.87</v>
-      </c>
-      <c r="AM16">
-        <v>20.38</v>
-      </c>
-      <c r="AN16">
-        <v>22.07</v>
-      </c>
-      <c r="AO16">
-        <v>0.15</v>
-      </c>
-      <c r="AP16">
-        <v>3.92</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>21.27</v>
-      </c>
-      <c r="AS16">
-        <v>42.07</v>
-      </c>
-      <c r="AT16">
-        <v>21.16</v>
-      </c>
-      <c r="AU16">
-        <v>6.16</v>
-      </c>
-      <c r="AV16">
         <v>5.28</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>16196</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202008</v>
@@ -2898,10 +2082,10 @@
         <v>6369700167</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>4723053500</v>
@@ -2910,7 +2094,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L17">
         <v>13107198</v>
@@ -2922,117 +2106,69 @@
         <v>32983</v>
       </c>
       <c r="O17">
-        <v>82.34</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>17.66</v>
+        <v>1.13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="R17">
-        <v>25.44</v>
+        <v>7.57</v>
       </c>
       <c r="S17">
-        <v>24.36</v>
+        <v>19.84</v>
       </c>
       <c r="T17">
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>11.88</v>
+        <v>8.17</v>
       </c>
       <c r="V17">
-        <v>15.29</v>
+        <v>14.06</v>
       </c>
       <c r="W17">
-        <v>10.09</v>
+        <v>7.35</v>
       </c>
       <c r="X17">
-        <v>37.71</v>
+        <v>38.85</v>
       </c>
       <c r="Y17">
-        <v>38.71</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>23.59</v>
+        <v>2.6</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>30.54</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="AF17">
-        <v>1.13</v>
-      </c>
-      <c r="AG17">
-        <v>3.02</v>
-      </c>
-      <c r="AH17">
-        <v>7.57</v>
-      </c>
-      <c r="AI17">
-        <v>19.84</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>8.17</v>
-      </c>
-      <c r="AL17">
-        <v>14.06</v>
-      </c>
-      <c r="AM17">
-        <v>7.35</v>
-      </c>
-      <c r="AN17">
-        <v>38.85</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>2.6</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>37.6</v>
-      </c>
-      <c r="AS17">
-        <v>30.54</v>
-      </c>
-      <c r="AT17">
-        <v>22.98</v>
-      </c>
-      <c r="AU17">
-        <v>0.77</v>
-      </c>
-      <c r="AV17">
         <v>5.51</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>17567</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202009</v>
@@ -3044,10 +2180,10 @@
         <v>5058205490</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <v>4723053500</v>
@@ -3056,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>360500874</v>
@@ -3068,117 +2204,69 @@
         <v>78896</v>
       </c>
       <c r="O18">
-        <v>84.09999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="P18">
-        <v>15.9</v>
+        <v>1.68</v>
       </c>
       <c r="Q18">
-        <v>3.48</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="R18">
-        <v>12.55</v>
+        <v>7.09</v>
       </c>
       <c r="S18">
-        <v>19.66</v>
+        <v>8.51</v>
       </c>
       <c r="T18">
-        <v>32.01</v>
+        <v>2.07</v>
       </c>
       <c r="U18">
-        <v>12.94</v>
+        <v>3.86</v>
       </c>
       <c r="V18">
-        <v>11.6</v>
+        <v>11.87</v>
       </c>
       <c r="W18">
-        <v>7.75</v>
+        <v>25.46</v>
       </c>
       <c r="X18">
-        <v>36.66</v>
+        <v>30.74</v>
       </c>
       <c r="Y18">
-        <v>43.16</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>12.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA18">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.93</v>
+        <v>30.48</v>
       </c>
       <c r="AC18">
-        <v>2.83</v>
+        <v>41.76</v>
       </c>
       <c r="AD18">
-        <v>2.02</v>
+        <v>16.52</v>
       </c>
       <c r="AE18">
-        <v>0.09</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AF18">
-        <v>1.68</v>
-      </c>
-      <c r="AG18">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH18">
-        <v>7.09</v>
-      </c>
-      <c r="AI18">
-        <v>8.51</v>
-      </c>
-      <c r="AJ18">
-        <v>2.07</v>
-      </c>
-      <c r="AK18">
-        <v>3.86</v>
-      </c>
-      <c r="AL18">
-        <v>11.87</v>
-      </c>
-      <c r="AM18">
-        <v>25.46</v>
-      </c>
-      <c r="AN18">
-        <v>30.74</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>30.48</v>
-      </c>
-      <c r="AS18">
-        <v>41.76</v>
-      </c>
-      <c r="AT18">
-        <v>16.52</v>
-      </c>
-      <c r="AU18">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AV18">
         <v>2.29</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>18237</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202009</v>
@@ -3190,10 +2278,10 @@
         <v>6369700167</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I19">
         <v>4723053500</v>
@@ -3202,7 +2290,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <v>12446099</v>
@@ -3214,117 +2302,69 @@
         <v>33073</v>
       </c>
       <c r="O19">
-        <v>85.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>14.1</v>
+        <v>2.51</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="R19">
-        <v>16.44</v>
+        <v>5.74</v>
       </c>
       <c r="S19">
-        <v>26.13</v>
+        <v>34.54</v>
       </c>
       <c r="T19">
-        <v>12.5</v>
+        <v>0.5</v>
       </c>
       <c r="U19">
-        <v>11.7</v>
+        <v>2.55</v>
       </c>
       <c r="V19">
-        <v>19.13</v>
+        <v>10.35</v>
       </c>
       <c r="W19">
-        <v>14.1</v>
+        <v>7.05</v>
       </c>
       <c r="X19">
-        <v>19.91</v>
+        <v>31.08</v>
       </c>
       <c r="Y19">
-        <v>50.42</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>29.66</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>34.13</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>48.63</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>14.67</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AF19">
-        <v>2.51</v>
-      </c>
-      <c r="AG19">
-        <v>5.68</v>
-      </c>
-      <c r="AH19">
-        <v>5.74</v>
-      </c>
-      <c r="AI19">
-        <v>34.54</v>
-      </c>
-      <c r="AJ19">
-        <v>0.5</v>
-      </c>
-      <c r="AK19">
-        <v>2.55</v>
-      </c>
-      <c r="AL19">
-        <v>10.35</v>
-      </c>
-      <c r="AM19">
-        <v>7.05</v>
-      </c>
-      <c r="AN19">
-        <v>31.08</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>34.13</v>
-      </c>
-      <c r="AS19">
-        <v>48.63</v>
-      </c>
-      <c r="AT19">
-        <v>14.67</v>
-      </c>
-      <c r="AU19">
-        <v>2.57</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>19616</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202010</v>
@@ -3336,10 +2376,10 @@
         <v>5058205490</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>4723053500</v>
@@ -3348,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L20">
         <v>333587395</v>
@@ -3360,117 +2400,69 @@
         <v>79783</v>
       </c>
       <c r="O20">
-        <v>85.33</v>
+        <v>2.44</v>
       </c>
       <c r="P20">
-        <v>14.67</v>
+        <v>3.69</v>
       </c>
       <c r="Q20">
-        <v>5.31</v>
+        <v>10.98</v>
       </c>
       <c r="R20">
-        <v>25.46</v>
+        <v>17.38</v>
       </c>
       <c r="S20">
-        <v>11.62</v>
+        <v>5.54</v>
       </c>
       <c r="T20">
-        <v>12.25</v>
+        <v>1.39</v>
       </c>
       <c r="U20">
-        <v>15.96</v>
+        <v>8.65</v>
       </c>
       <c r="V20">
-        <v>25.63</v>
+        <v>10.91</v>
       </c>
       <c r="W20">
-        <v>3.76</v>
+        <v>18.67</v>
       </c>
       <c r="X20">
-        <v>29.56</v>
+        <v>20.35</v>
       </c>
       <c r="Y20">
-        <v>45.08</v>
+        <v>0.65</v>
       </c>
       <c r="Z20">
-        <v>17.13</v>
+        <v>0.42</v>
       </c>
       <c r="AA20">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1.49</v>
+        <v>20.86</v>
       </c>
       <c r="AC20">
-        <v>2.6</v>
+        <v>51.27</v>
       </c>
       <c r="AD20">
-        <v>1.11</v>
+        <v>17.7</v>
       </c>
       <c r="AE20">
-        <v>2.44</v>
+        <v>8.66</v>
       </c>
       <c r="AF20">
-        <v>3.69</v>
-      </c>
-      <c r="AG20">
-        <v>10.98</v>
-      </c>
-      <c r="AH20">
-        <v>17.38</v>
-      </c>
-      <c r="AI20">
-        <v>5.54</v>
-      </c>
-      <c r="AJ20">
-        <v>1.39</v>
-      </c>
-      <c r="AK20">
-        <v>8.65</v>
-      </c>
-      <c r="AL20">
-        <v>10.91</v>
-      </c>
-      <c r="AM20">
-        <v>18.67</v>
-      </c>
-      <c r="AN20">
-        <v>20.35</v>
-      </c>
-      <c r="AO20">
-        <v>0.65</v>
-      </c>
-      <c r="AP20">
-        <v>0.42</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>20.86</v>
-      </c>
-      <c r="AS20">
-        <v>51.27</v>
-      </c>
-      <c r="AT20">
-        <v>17.7</v>
-      </c>
-      <c r="AU20">
-        <v>8.66</v>
-      </c>
-      <c r="AV20">
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>20284</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202010</v>
@@ -3482,10 +2474,10 @@
         <v>6369700167</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>4723053500</v>
@@ -3494,7 +2486,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L21">
         <v>13553710</v>
@@ -3506,117 +2498,69 @@
         <v>30781</v>
       </c>
       <c r="O21">
-        <v>79.56</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>20.44</v>
+        <v>1.01</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="R21">
-        <v>16.98</v>
+        <v>17.04</v>
       </c>
       <c r="S21">
-        <v>20.56</v>
+        <v>19.57</v>
       </c>
       <c r="T21">
-        <v>10.97</v>
+        <v>2.85</v>
       </c>
       <c r="U21">
-        <v>14.99</v>
+        <v>3.74</v>
       </c>
       <c r="V21">
-        <v>16.06</v>
+        <v>10.05</v>
       </c>
       <c r="W21">
-        <v>20.44</v>
+        <v>12.63</v>
       </c>
       <c r="X21">
-        <v>31.89</v>
+        <v>26.8</v>
       </c>
       <c r="Y21">
-        <v>39.2</v>
+        <v>1.26</v>
       </c>
       <c r="Z21">
-        <v>28.91</v>
+        <v>0.75</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>27.08</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>39.94</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>25.06</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AF21">
-        <v>1.01</v>
-      </c>
-      <c r="AG21">
-        <v>6.32</v>
-      </c>
-      <c r="AH21">
-        <v>17.04</v>
-      </c>
-      <c r="AI21">
-        <v>19.57</v>
-      </c>
-      <c r="AJ21">
-        <v>2.85</v>
-      </c>
-      <c r="AK21">
-        <v>3.74</v>
-      </c>
-      <c r="AL21">
-        <v>10.05</v>
-      </c>
-      <c r="AM21">
-        <v>12.63</v>
-      </c>
-      <c r="AN21">
-        <v>26.8</v>
-      </c>
-      <c r="AO21">
-        <v>1.26</v>
-      </c>
-      <c r="AP21">
-        <v>0.75</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>27.08</v>
-      </c>
-      <c r="AS21">
-        <v>39.94</v>
-      </c>
-      <c r="AT21">
-        <v>25.06</v>
-      </c>
-      <c r="AU21">
-        <v>2.88</v>
-      </c>
-      <c r="AV21">
         <v>3.03</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>21656</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202011</v>
@@ -3628,10 +2572,10 @@
         <v>5058205490</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>4723053500</v>
@@ -3640,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>243413179</v>
@@ -3652,117 +2596,69 @@
         <v>64687</v>
       </c>
       <c r="O22">
-        <v>92.59999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="P22">
-        <v>7.4</v>
+        <v>4.31</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>12.41</v>
       </c>
       <c r="R22">
-        <v>21.64</v>
+        <v>11.49</v>
       </c>
       <c r="S22">
-        <v>16.27</v>
+        <v>15.74</v>
       </c>
       <c r="T22">
-        <v>18.2</v>
+        <v>1.05</v>
       </c>
       <c r="U22">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V22">
-        <v>19.99</v>
+        <v>10.47</v>
       </c>
       <c r="W22">
-        <v>5.4</v>
+        <v>13.12</v>
       </c>
       <c r="X22">
-        <v>28.62</v>
+        <v>15.13</v>
       </c>
       <c r="Y22">
-        <v>49.73</v>
+        <v>0.13</v>
       </c>
       <c r="Z22">
-        <v>12.99</v>
+        <v>0.19</v>
       </c>
       <c r="AA22">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>4.65</v>
+        <v>26.24</v>
       </c>
       <c r="AC22">
-        <v>1.26</v>
+        <v>43.51</v>
       </c>
       <c r="AD22">
-        <v>0.8</v>
+        <v>21.63</v>
       </c>
       <c r="AE22">
-        <v>0.29</v>
+        <v>7.61</v>
       </c>
       <c r="AF22">
-        <v>4.31</v>
-      </c>
-      <c r="AG22">
-        <v>12.41</v>
-      </c>
-      <c r="AH22">
-        <v>11.49</v>
-      </c>
-      <c r="AI22">
-        <v>15.74</v>
-      </c>
-      <c r="AJ22">
-        <v>1.05</v>
-      </c>
-      <c r="AK22">
-        <v>16</v>
-      </c>
-      <c r="AL22">
-        <v>10.47</v>
-      </c>
-      <c r="AM22">
-        <v>13.12</v>
-      </c>
-      <c r="AN22">
-        <v>15.13</v>
-      </c>
-      <c r="AO22">
-        <v>0.13</v>
-      </c>
-      <c r="AP22">
-        <v>0.19</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>26.24</v>
-      </c>
-      <c r="AS22">
-        <v>43.51</v>
-      </c>
-      <c r="AT22">
-        <v>21.63</v>
-      </c>
-      <c r="AU22">
-        <v>7.61</v>
-      </c>
-      <c r="AV22">
         <v>0.6899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>22326</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202011</v>
@@ -3774,10 +2670,10 @@
         <v>6369700167</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>4723053500</v>
@@ -3786,7 +2682,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>16783787</v>
@@ -3798,117 +2694,69 @@
         <v>36374</v>
       </c>
       <c r="O23">
-        <v>89.72</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>10.28</v>
+        <v>1.17</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="R23">
-        <v>27.99</v>
+        <v>8.41</v>
       </c>
       <c r="S23">
-        <v>10.52</v>
+        <v>28.96</v>
       </c>
       <c r="T23">
-        <v>17.69</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>18.79</v>
+        <v>3.59</v>
       </c>
       <c r="V23">
-        <v>14.74</v>
+        <v>1.61</v>
       </c>
       <c r="W23">
-        <v>10.28</v>
+        <v>8.92</v>
       </c>
       <c r="X23">
-        <v>24.78</v>
+        <v>41.97</v>
       </c>
       <c r="Y23">
-        <v>52.42</v>
+        <v>1.5</v>
       </c>
       <c r="Z23">
-        <v>22.8</v>
+        <v>3.45</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>40.44</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>44.32</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>1.17</v>
-      </c>
-      <c r="AG23">
-        <v>5.37</v>
-      </c>
-      <c r="AH23">
-        <v>8.41</v>
-      </c>
-      <c r="AI23">
-        <v>28.96</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>3.59</v>
-      </c>
-      <c r="AL23">
-        <v>1.61</v>
-      </c>
-      <c r="AM23">
-        <v>8.92</v>
-      </c>
-      <c r="AN23">
-        <v>41.97</v>
-      </c>
-      <c r="AO23">
-        <v>1.5</v>
-      </c>
-      <c r="AP23">
-        <v>3.45</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>40.44</v>
-      </c>
-      <c r="AS23">
-        <v>44.32</v>
-      </c>
-      <c r="AT23">
-        <v>6.04</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
-      <c r="AV23">
         <v>3.26</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>23704</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202012</v>
@@ -3920,10 +2768,10 @@
         <v>5058205490</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>4723053500</v>
@@ -3932,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>228103948</v>
@@ -3944,117 +2792,69 @@
         <v>58186</v>
       </c>
       <c r="O24">
-        <v>92.56999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="P24">
-        <v>7.43</v>
+        <v>2.54</v>
       </c>
       <c r="Q24">
-        <v>2.71</v>
+        <v>15.28</v>
       </c>
       <c r="R24">
-        <v>23.01</v>
+        <v>19.29</v>
       </c>
       <c r="S24">
-        <v>16.13</v>
+        <v>7.71</v>
       </c>
       <c r="T24">
-        <v>20.82</v>
+        <v>5.97</v>
       </c>
       <c r="U24">
-        <v>20.67</v>
+        <v>12.73</v>
       </c>
       <c r="V24">
-        <v>12.96</v>
+        <v>5.53</v>
       </c>
       <c r="W24">
-        <v>3.7</v>
+        <v>16.11</v>
       </c>
       <c r="X24">
-        <v>34.48</v>
+        <v>13.77</v>
       </c>
       <c r="Y24">
-        <v>42.53</v>
+        <v>0.49</v>
       </c>
       <c r="Z24">
-        <v>17.17</v>
+        <v>0.1</v>
       </c>
       <c r="AA24">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.18</v>
+        <v>12.01</v>
       </c>
       <c r="AC24">
-        <v>3.07</v>
+        <v>59.25</v>
       </c>
       <c r="AD24">
-        <v>1.18</v>
+        <v>12.19</v>
       </c>
       <c r="AE24">
-        <v>1.06</v>
+        <v>3.46</v>
       </c>
       <c r="AF24">
-        <v>2.54</v>
-      </c>
-      <c r="AG24">
-        <v>15.28</v>
-      </c>
-      <c r="AH24">
-        <v>19.29</v>
-      </c>
-      <c r="AI24">
-        <v>7.71</v>
-      </c>
-      <c r="AJ24">
-        <v>5.97</v>
-      </c>
-      <c r="AK24">
-        <v>12.73</v>
-      </c>
-      <c r="AL24">
-        <v>5.53</v>
-      </c>
-      <c r="AM24">
-        <v>16.11</v>
-      </c>
-      <c r="AN24">
-        <v>13.77</v>
-      </c>
-      <c r="AO24">
-        <v>0.49</v>
-      </c>
-      <c r="AP24">
-        <v>0.1</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>12.01</v>
-      </c>
-      <c r="AS24">
-        <v>59.25</v>
-      </c>
-      <c r="AT24">
-        <v>12.19</v>
-      </c>
-      <c r="AU24">
-        <v>3.46</v>
-      </c>
-      <c r="AV24">
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>24371</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202012</v>
@@ -4066,10 +2866,10 @@
         <v>6369700167</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>4723053500</v>
@@ -4078,7 +2878,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>15844663</v>
@@ -4090,117 +2890,69 @@
         <v>36693</v>
       </c>
       <c r="O25">
-        <v>92.42</v>
+        <v>2.27</v>
       </c>
       <c r="P25">
-        <v>7.58</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="R25">
-        <v>29.08</v>
+        <v>11.16</v>
       </c>
       <c r="S25">
-        <v>18.35</v>
+        <v>24.25</v>
       </c>
       <c r="T25">
-        <v>23.72</v>
+        <v>0.77</v>
       </c>
       <c r="U25">
-        <v>12.9</v>
+        <v>2.5</v>
       </c>
       <c r="V25">
-        <v>8.390000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="W25">
-        <v>7.58</v>
+        <v>13.54</v>
       </c>
       <c r="X25">
-        <v>29.09</v>
+        <v>27</v>
       </c>
       <c r="Y25">
-        <v>57.04</v>
+        <v>0.72</v>
       </c>
       <c r="Z25">
-        <v>13.87</v>
+        <v>2.03</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>35.11</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>43.15</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AE25">
-        <v>2.27</v>
+        <v>6.82</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AH25">
-        <v>11.16</v>
-      </c>
-      <c r="AI25">
-        <v>24.25</v>
-      </c>
-      <c r="AJ25">
-        <v>0.77</v>
-      </c>
-      <c r="AK25">
-        <v>2.5</v>
-      </c>
-      <c r="AL25">
-        <v>10.12</v>
-      </c>
-      <c r="AM25">
-        <v>13.54</v>
-      </c>
-      <c r="AN25">
-        <v>27</v>
-      </c>
-      <c r="AO25">
-        <v>0.72</v>
-      </c>
-      <c r="AP25">
-        <v>2.03</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>35.11</v>
-      </c>
-      <c r="AS25">
-        <v>43.15</v>
-      </c>
-      <c r="AT25">
-        <v>10.8</v>
-      </c>
-      <c r="AU25">
-        <v>6.82</v>
-      </c>
-      <c r="AV25">
         <v>1.36</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>25738</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202101</v>
@@ -4212,10 +2964,10 @@
         <v>5058205490</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>4723053500</v>
@@ -4224,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L26">
         <v>233222962</v>
@@ -4236,117 +2988,69 @@
         <v>62467</v>
       </c>
       <c r="O26">
-        <v>93.55</v>
+        <v>0.54</v>
       </c>
       <c r="P26">
-        <v>6.45</v>
+        <v>6.49</v>
       </c>
       <c r="Q26">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="R26">
-        <v>16.16</v>
+        <v>10.98</v>
       </c>
       <c r="S26">
-        <v>13.35</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="T26">
-        <v>22.96</v>
+        <v>0.39</v>
       </c>
       <c r="U26">
-        <v>14.83</v>
+        <v>3.21</v>
       </c>
       <c r="V26">
-        <v>27.34</v>
+        <v>19.22</v>
       </c>
       <c r="W26">
-        <v>2.17</v>
+        <v>23.95</v>
       </c>
       <c r="X26">
-        <v>33.85</v>
+        <v>13.03</v>
       </c>
       <c r="Y26">
-        <v>38.87</v>
+        <v>1.61</v>
       </c>
       <c r="Z26">
-        <v>16.76</v>
+        <v>0.58</v>
       </c>
       <c r="AA26">
-        <v>5.97</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.53</v>
+        <v>15.78</v>
       </c>
       <c r="AC26">
-        <v>1.66</v>
+        <v>48.33</v>
       </c>
       <c r="AD26">
-        <v>1.37</v>
+        <v>18.57</v>
       </c>
       <c r="AE26">
-        <v>0.54</v>
+        <v>13.02</v>
       </c>
       <c r="AF26">
-        <v>6.49</v>
-      </c>
-      <c r="AG26">
-        <v>12.4</v>
-      </c>
-      <c r="AH26">
-        <v>10.98</v>
-      </c>
-      <c r="AI26">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AJ26">
-        <v>0.39</v>
-      </c>
-      <c r="AK26">
-        <v>3.21</v>
-      </c>
-      <c r="AL26">
-        <v>19.22</v>
-      </c>
-      <c r="AM26">
-        <v>23.95</v>
-      </c>
-      <c r="AN26">
-        <v>13.03</v>
-      </c>
-      <c r="AO26">
-        <v>1.61</v>
-      </c>
-      <c r="AP26">
-        <v>0.58</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>15.78</v>
-      </c>
-      <c r="AS26">
-        <v>48.33</v>
-      </c>
-      <c r="AT26">
-        <v>18.57</v>
-      </c>
-      <c r="AU26">
-        <v>13.02</v>
-      </c>
-      <c r="AV26">
         <v>2.11</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>26407</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202101</v>
@@ -4358,10 +3062,10 @@
         <v>6369700167</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>4723053500</v>
@@ -4370,7 +3074,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L27">
         <v>12767982</v>
@@ -4382,117 +3086,69 @@
         <v>35094</v>
       </c>
       <c r="O27">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>21</v>
+        <v>1.83</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="R27">
-        <v>18</v>
+        <v>11.06</v>
       </c>
       <c r="S27">
-        <v>21.77</v>
+        <v>29.93</v>
       </c>
       <c r="T27">
-        <v>14.94</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>11.72</v>
+        <v>2.12</v>
       </c>
       <c r="V27">
-        <v>12.57</v>
+        <v>5.46</v>
       </c>
       <c r="W27">
-        <v>21</v>
+        <v>13.61</v>
       </c>
       <c r="X27">
-        <v>16.54</v>
+        <v>31.3</v>
       </c>
       <c r="Y27">
-        <v>60.53</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>22.93</v>
+        <v>2.35</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>31.49</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>52.89</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>8.43</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AF27">
-        <v>1.83</v>
-      </c>
-      <c r="AG27">
-        <v>4.69</v>
-      </c>
-      <c r="AH27">
-        <v>11.06</v>
-      </c>
-      <c r="AI27">
-        <v>29.93</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>2.12</v>
-      </c>
-      <c r="AL27">
-        <v>5.46</v>
-      </c>
-      <c r="AM27">
-        <v>13.61</v>
-      </c>
-      <c r="AN27">
-        <v>31.3</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2.35</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>31.49</v>
-      </c>
-      <c r="AS27">
-        <v>52.89</v>
-      </c>
-      <c r="AT27">
-        <v>8.43</v>
-      </c>
-      <c r="AU27">
-        <v>3.26</v>
-      </c>
-      <c r="AV27">
         <v>1.58</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>27770</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202102</v>
@@ -4504,10 +3160,10 @@
         <v>5058205490</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>4723053500</v>
@@ -4516,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L28">
         <v>175289632</v>
@@ -4528,117 +3184,69 @@
         <v>47591</v>
       </c>
       <c r="O28">
-        <v>87.55</v>
+        <v>1.36</v>
       </c>
       <c r="P28">
-        <v>12.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q28">
-        <v>3.26</v>
+        <v>7.99</v>
       </c>
       <c r="R28">
-        <v>25.73</v>
+        <v>18.33</v>
       </c>
       <c r="S28">
-        <v>19.74</v>
+        <v>17.14</v>
       </c>
       <c r="T28">
-        <v>14.68</v>
+        <v>4.37</v>
       </c>
       <c r="U28">
-        <v>21.81</v>
+        <v>4.25</v>
       </c>
       <c r="V28">
-        <v>8.869999999999999</v>
+        <v>11.33</v>
       </c>
       <c r="W28">
-        <v>5.92</v>
+        <v>14.69</v>
       </c>
       <c r="X28">
-        <v>44.28</v>
+        <v>16.9</v>
       </c>
       <c r="Y28">
-        <v>29.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z28">
-        <v>16.93</v>
+        <v>1.83</v>
       </c>
       <c r="AA28">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>3.1</v>
+        <v>20.55</v>
       </c>
       <c r="AC28">
-        <v>3.77</v>
+        <v>44.51</v>
       </c>
       <c r="AD28">
-        <v>0.9</v>
+        <v>19.55</v>
       </c>
       <c r="AE28">
-        <v>1.36</v>
+        <v>11.59</v>
       </c>
       <c r="AF28">
-        <v>3.65</v>
-      </c>
-      <c r="AG28">
-        <v>7.99</v>
-      </c>
-      <c r="AH28">
-        <v>18.33</v>
-      </c>
-      <c r="AI28">
-        <v>17.14</v>
-      </c>
-      <c r="AJ28">
-        <v>4.37</v>
-      </c>
-      <c r="AK28">
-        <v>4.25</v>
-      </c>
-      <c r="AL28">
-        <v>11.33</v>
-      </c>
-      <c r="AM28">
-        <v>14.69</v>
-      </c>
-      <c r="AN28">
-        <v>16.9</v>
-      </c>
-      <c r="AO28">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP28">
-        <v>1.83</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>20.55</v>
-      </c>
-      <c r="AS28">
-        <v>44.51</v>
-      </c>
-      <c r="AT28">
-        <v>19.55</v>
-      </c>
-      <c r="AU28">
-        <v>11.59</v>
-      </c>
-      <c r="AV28">
         <v>1.03</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>28436</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202102</v>
@@ -4650,10 +3258,10 @@
         <v>6369700167</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>4723053500</v>
@@ -4662,7 +3270,7 @@
         <v>39.03030303030304</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L29">
         <v>2779504</v>
@@ -4674,25 +3282,25 @@
         <v>38107</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="R29">
-        <v>28.94</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>53.7</v>
+        <v>34.3</v>
       </c>
       <c r="T29">
-        <v>11.96</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -4701,25 +3309,25 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>18.29</v>
+        <v>59.51</v>
       </c>
       <c r="Y29">
-        <v>52.03</v>
+        <v>12.73</v>
       </c>
       <c r="Z29">
-        <v>29.67</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>41.63</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>14.77</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4727,64 +3335,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>6.19</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>34.3</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>59.51</v>
-      </c>
-      <c r="AO29">
-        <v>12.73</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>41.63</v>
-      </c>
-      <c r="AS29">
-        <v>30.87</v>
-      </c>
-      <c r="AT29">
-        <v>14.77</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>29812</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202103</v>
@@ -4796,10 +3356,10 @@
         <v>5058205490</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>4723053500</v>
@@ -4808,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L30">
         <v>328656624</v>
@@ -4820,117 +3380,69 @@
         <v>71136</v>
       </c>
       <c r="O30">
-        <v>91.55</v>
+        <v>1.25</v>
       </c>
       <c r="P30">
-        <v>8.449999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="Q30">
-        <v>4.2</v>
+        <v>5.64</v>
       </c>
       <c r="R30">
-        <v>23.74</v>
+        <v>15.5</v>
       </c>
       <c r="S30">
-        <v>13.95</v>
+        <v>9.33</v>
       </c>
       <c r="T30">
-        <v>27.63</v>
+        <v>1.36</v>
       </c>
       <c r="U30">
-        <v>6.35</v>
+        <v>4.12</v>
       </c>
       <c r="V30">
-        <v>20.71</v>
+        <v>24.92</v>
       </c>
       <c r="W30">
-        <v>3.42</v>
+        <v>16.72</v>
       </c>
       <c r="X30">
-        <v>35.75</v>
+        <v>18.22</v>
       </c>
       <c r="Y30">
-        <v>40.03</v>
+        <v>0.44</v>
       </c>
       <c r="Z30">
-        <v>17.15</v>
+        <v>1.08</v>
       </c>
       <c r="AA30">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>2.23</v>
+        <v>19.44</v>
       </c>
       <c r="AC30">
-        <v>1.84</v>
+        <v>44.2</v>
       </c>
       <c r="AD30">
-        <v>0.9</v>
+        <v>28.07</v>
       </c>
       <c r="AE30">
-        <v>1.25</v>
+        <v>6.27</v>
       </c>
       <c r="AF30">
-        <v>2.93</v>
-      </c>
-      <c r="AG30">
-        <v>5.64</v>
-      </c>
-      <c r="AH30">
-        <v>15.5</v>
-      </c>
-      <c r="AI30">
-        <v>9.33</v>
-      </c>
-      <c r="AJ30">
-        <v>1.36</v>
-      </c>
-      <c r="AK30">
-        <v>4.12</v>
-      </c>
-      <c r="AL30">
-        <v>24.92</v>
-      </c>
-      <c r="AM30">
-        <v>16.72</v>
-      </c>
-      <c r="AN30">
-        <v>18.22</v>
-      </c>
-      <c r="AO30">
-        <v>0.44</v>
-      </c>
-      <c r="AP30">
-        <v>1.08</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>19.44</v>
-      </c>
-      <c r="AS30">
-        <v>44.2</v>
-      </c>
-      <c r="AT30">
-        <v>28.07</v>
-      </c>
-      <c r="AU30">
-        <v>6.27</v>
-      </c>
-      <c r="AV30">
         <v>0.51</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>31859</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>202104</v>
@@ -4942,10 +3454,10 @@
         <v>5058205490</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>4723053500</v>
@@ -4954,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <v>234640353</v>
@@ -4966,117 +3478,69 @@
         <v>54772</v>
       </c>
       <c r="O31">
-        <v>86.78</v>
+        <v>1.55</v>
       </c>
       <c r="P31">
-        <v>13.22</v>
+        <v>1.69</v>
       </c>
       <c r="Q31">
-        <v>7.21</v>
+        <v>15.52</v>
       </c>
       <c r="R31">
-        <v>18.08</v>
+        <v>12.66</v>
       </c>
       <c r="S31">
-        <v>15.79</v>
+        <v>10.71</v>
       </c>
       <c r="T31">
-        <v>15.27</v>
+        <v>1.04</v>
       </c>
       <c r="U31">
-        <v>20.26</v>
+        <v>3.66</v>
       </c>
       <c r="V31">
-        <v>17.38</v>
+        <v>8.94</v>
       </c>
       <c r="W31">
-        <v>6.01</v>
+        <v>23.49</v>
       </c>
       <c r="X31">
-        <v>34.66</v>
+        <v>20.76</v>
       </c>
       <c r="Y31">
-        <v>48.41</v>
+        <v>0.16</v>
       </c>
       <c r="Z31">
-        <v>11.72</v>
+        <v>1.2</v>
       </c>
       <c r="AA31">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.8100000000000001</v>
+        <v>26.46</v>
       </c>
       <c r="AC31">
-        <v>2.22</v>
+        <v>42.94</v>
       </c>
       <c r="AD31">
-        <v>0.27</v>
+        <v>19.59</v>
       </c>
       <c r="AE31">
-        <v>1.55</v>
+        <v>7.19</v>
       </c>
       <c r="AF31">
-        <v>1.69</v>
-      </c>
-      <c r="AG31">
-        <v>15.52</v>
-      </c>
-      <c r="AH31">
-        <v>12.66</v>
-      </c>
-      <c r="AI31">
-        <v>10.71</v>
-      </c>
-      <c r="AJ31">
-        <v>1.04</v>
-      </c>
-      <c r="AK31">
-        <v>3.66</v>
-      </c>
-      <c r="AL31">
-        <v>8.94</v>
-      </c>
-      <c r="AM31">
-        <v>23.49</v>
-      </c>
-      <c r="AN31">
-        <v>20.76</v>
-      </c>
-      <c r="AO31">
-        <v>0.16</v>
-      </c>
-      <c r="AP31">
-        <v>1.2</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>26.46</v>
-      </c>
-      <c r="AS31">
-        <v>42.94</v>
-      </c>
-      <c r="AT31">
-        <v>19.59</v>
-      </c>
-      <c r="AU31">
-        <v>7.19</v>
-      </c>
-      <c r="AV31">
         <v>2.47</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>33895</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>202105</v>
@@ -5088,10 +3552,10 @@
         <v>5058205490</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32">
         <v>4723053500</v>
@@ -5100,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L32">
         <v>233700292</v>
@@ -5112,117 +3576,69 @@
         <v>60097</v>
       </c>
       <c r="O32">
-        <v>87.25</v>
+        <v>1.64</v>
       </c>
       <c r="P32">
-        <v>12.75</v>
+        <v>2.16</v>
       </c>
       <c r="Q32">
-        <v>6.31</v>
+        <v>8.25</v>
       </c>
       <c r="R32">
-        <v>21.76</v>
+        <v>10.65</v>
       </c>
       <c r="S32">
-        <v>23.13</v>
+        <v>10.83</v>
       </c>
       <c r="T32">
-        <v>13.88</v>
+        <v>3.3</v>
       </c>
       <c r="U32">
-        <v>19.75</v>
+        <v>6.47</v>
       </c>
       <c r="V32">
-        <v>12.29</v>
+        <v>14.83</v>
       </c>
       <c r="W32">
-        <v>2.88</v>
+        <v>27.4</v>
       </c>
       <c r="X32">
-        <v>37.33</v>
+        <v>14.48</v>
       </c>
       <c r="Y32">
-        <v>40.77</v>
+        <v>0.11</v>
       </c>
       <c r="Z32">
-        <v>13.78</v>
+        <v>3.6</v>
       </c>
       <c r="AA32">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>3.77</v>
+        <v>15.28</v>
       </c>
       <c r="AC32">
-        <v>1.35</v>
+        <v>44.98</v>
       </c>
       <c r="AD32">
-        <v>1.8</v>
+        <v>13.82</v>
       </c>
       <c r="AE32">
-        <v>1.64</v>
+        <v>13.35</v>
       </c>
       <c r="AF32">
-        <v>2.16</v>
-      </c>
-      <c r="AG32">
-        <v>8.25</v>
-      </c>
-      <c r="AH32">
-        <v>10.65</v>
-      </c>
-      <c r="AI32">
-        <v>10.83</v>
-      </c>
-      <c r="AJ32">
-        <v>3.3</v>
-      </c>
-      <c r="AK32">
-        <v>6.47</v>
-      </c>
-      <c r="AL32">
-        <v>14.83</v>
-      </c>
-      <c r="AM32">
-        <v>27.4</v>
-      </c>
-      <c r="AN32">
-        <v>14.48</v>
-      </c>
-      <c r="AO32">
-        <v>0.11</v>
-      </c>
-      <c r="AP32">
-        <v>3.6</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>15.28</v>
-      </c>
-      <c r="AS32">
-        <v>44.98</v>
-      </c>
-      <c r="AT32">
-        <v>13.82</v>
-      </c>
-      <c r="AU32">
-        <v>13.35</v>
-      </c>
-      <c r="AV32">
         <v>8.869999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>35945</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>202106</v>
@@ -5234,10 +3650,10 @@
         <v>5058205490</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>4723053500</v>
@@ -5246,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L33">
         <v>283519432</v>
@@ -5258,117 +3674,69 @@
         <v>63136</v>
       </c>
       <c r="O33">
-        <v>85.40000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="P33">
-        <v>14.6</v>
+        <v>4.06</v>
       </c>
       <c r="Q33">
-        <v>4.85</v>
+        <v>6.65</v>
       </c>
       <c r="R33">
-        <v>14.53</v>
+        <v>12.7</v>
       </c>
       <c r="S33">
-        <v>20.42</v>
+        <v>12.24</v>
       </c>
       <c r="T33">
-        <v>13.71</v>
+        <v>3.97</v>
       </c>
       <c r="U33">
-        <v>17.07</v>
+        <v>3.48</v>
       </c>
       <c r="V33">
-        <v>19.66</v>
+        <v>18.03</v>
       </c>
       <c r="W33">
-        <v>9.76</v>
+        <v>16.99</v>
       </c>
       <c r="X33">
-        <v>29.09</v>
+        <v>21.1</v>
       </c>
       <c r="Y33">
-        <v>37.66</v>
+        <v>0.04</v>
       </c>
       <c r="Z33">
-        <v>21.25</v>
+        <v>1.25</v>
       </c>
       <c r="AA33">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>2.3</v>
+        <v>26.51</v>
       </c>
       <c r="AC33">
-        <v>5.4</v>
+        <v>41.11</v>
       </c>
       <c r="AD33">
-        <v>2.26</v>
+        <v>19.65</v>
       </c>
       <c r="AE33">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF33">
-        <v>4.06</v>
-      </c>
-      <c r="AG33">
-        <v>6.65</v>
-      </c>
-      <c r="AH33">
-        <v>12.7</v>
-      </c>
-      <c r="AI33">
-        <v>12.24</v>
-      </c>
-      <c r="AJ33">
-        <v>3.97</v>
-      </c>
-      <c r="AK33">
-        <v>3.48</v>
-      </c>
-      <c r="AL33">
-        <v>18.03</v>
-      </c>
-      <c r="AM33">
-        <v>16.99</v>
-      </c>
-      <c r="AN33">
-        <v>21.1</v>
-      </c>
-      <c r="AO33">
-        <v>0.04</v>
-      </c>
-      <c r="AP33">
-        <v>1.25</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>26.51</v>
-      </c>
-      <c r="AS33">
-        <v>41.11</v>
-      </c>
-      <c r="AT33">
-        <v>19.65</v>
-      </c>
-      <c r="AU33">
-        <v>7.9</v>
-      </c>
-      <c r="AV33">
         <v>3.53</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>37984</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>202107</v>
@@ -5380,10 +3748,10 @@
         <v>5058205490</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>4723053500</v>
@@ -5392,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L34">
         <v>260632826</v>
@@ -5404,117 +3772,69 @@
         <v>61473</v>
       </c>
       <c r="O34">
-        <v>88.29000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
-        <v>11.71</v>
+        <v>3.77</v>
       </c>
       <c r="Q34">
-        <v>4.7</v>
+        <v>13.74</v>
       </c>
       <c r="R34">
-        <v>21.91</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="S34">
-        <v>11.87</v>
+        <v>8.49</v>
       </c>
       <c r="T34">
-        <v>15.13</v>
+        <v>0.74</v>
       </c>
       <c r="U34">
-        <v>17.17</v>
+        <v>10.35</v>
       </c>
       <c r="V34">
-        <v>22.2</v>
+        <v>18.86</v>
       </c>
       <c r="W34">
-        <v>7.01</v>
+        <v>22.19</v>
       </c>
       <c r="X34">
-        <v>30.15</v>
+        <v>9.35</v>
       </c>
       <c r="Y34">
-        <v>42.75</v>
+        <v>0.14</v>
       </c>
       <c r="Z34">
-        <v>16.8</v>
+        <v>0.48</v>
       </c>
       <c r="AA34">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>2.05</v>
+        <v>15.29</v>
       </c>
       <c r="AC34">
-        <v>2.22</v>
+        <v>45.38</v>
       </c>
       <c r="AD34">
-        <v>1.95</v>
+        <v>16.29</v>
       </c>
       <c r="AE34">
-        <v>2.8</v>
+        <v>7.62</v>
       </c>
       <c r="AF34">
-        <v>3.77</v>
-      </c>
-      <c r="AG34">
-        <v>13.74</v>
-      </c>
-      <c r="AH34">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AI34">
-        <v>8.49</v>
-      </c>
-      <c r="AJ34">
-        <v>0.74</v>
-      </c>
-      <c r="AK34">
-        <v>10.35</v>
-      </c>
-      <c r="AL34">
-        <v>18.86</v>
-      </c>
-      <c r="AM34">
-        <v>22.19</v>
-      </c>
-      <c r="AN34">
-        <v>9.35</v>
-      </c>
-      <c r="AO34">
-        <v>0.14</v>
-      </c>
-      <c r="AP34">
-        <v>0.48</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>15.29</v>
-      </c>
-      <c r="AS34">
-        <v>45.38</v>
-      </c>
-      <c r="AT34">
-        <v>16.29</v>
-      </c>
-      <c r="AU34">
-        <v>7.62</v>
-      </c>
-      <c r="AV34">
         <v>14.81</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>40036</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>202108</v>
@@ -5526,10 +3846,10 @@
         <v>5058205490</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>4723053500</v>
@@ -5538,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L35">
         <v>338807483</v>
@@ -5550,117 +3870,69 @@
         <v>72308</v>
       </c>
       <c r="O35">
-        <v>90.56999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="P35">
-        <v>9.43</v>
+        <v>3.51</v>
       </c>
       <c r="Q35">
-        <v>3.48</v>
+        <v>9.26</v>
       </c>
       <c r="R35">
-        <v>15.2</v>
+        <v>30.68</v>
       </c>
       <c r="S35">
-        <v>17.14</v>
+        <v>6.84</v>
       </c>
       <c r="T35">
-        <v>15.73</v>
+        <v>1.13</v>
       </c>
       <c r="U35">
-        <v>11.6</v>
+        <v>6.38</v>
       </c>
       <c r="V35">
-        <v>30.94</v>
+        <v>10.24</v>
       </c>
       <c r="W35">
-        <v>5.91</v>
+        <v>20.82</v>
       </c>
       <c r="X35">
-        <v>47.76</v>
+        <v>10.43</v>
       </c>
       <c r="Y35">
-        <v>34.85</v>
+        <v>0.09</v>
       </c>
       <c r="Z35">
-        <v>10.43</v>
+        <v>1.24</v>
       </c>
       <c r="AA35">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>1.17</v>
+        <v>16.91</v>
       </c>
       <c r="AC35">
-        <v>2.27</v>
+        <v>51.94</v>
       </c>
       <c r="AD35">
-        <v>0.44</v>
+        <v>16.21</v>
       </c>
       <c r="AE35">
-        <v>0.72</v>
+        <v>8.98</v>
       </c>
       <c r="AF35">
-        <v>3.51</v>
-      </c>
-      <c r="AG35">
-        <v>9.26</v>
-      </c>
-      <c r="AH35">
-        <v>30.68</v>
-      </c>
-      <c r="AI35">
-        <v>6.84</v>
-      </c>
-      <c r="AJ35">
-        <v>1.13</v>
-      </c>
-      <c r="AK35">
-        <v>6.38</v>
-      </c>
-      <c r="AL35">
-        <v>10.24</v>
-      </c>
-      <c r="AM35">
-        <v>20.82</v>
-      </c>
-      <c r="AN35">
-        <v>10.43</v>
-      </c>
-      <c r="AO35">
-        <v>0.09</v>
-      </c>
-      <c r="AP35">
-        <v>1.24</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>16.91</v>
-      </c>
-      <c r="AS35">
-        <v>51.94</v>
-      </c>
-      <c r="AT35">
-        <v>16.21</v>
-      </c>
-      <c r="AU35">
-        <v>8.98</v>
-      </c>
-      <c r="AV35">
         <v>4.62</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>42083</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202109</v>
@@ -5672,10 +3944,10 @@
         <v>5058205490</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36">
         <v>4723053500</v>
@@ -5684,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L36">
         <v>261039800</v>
@@ -5696,117 +3968,69 @@
         <v>59495</v>
       </c>
       <c r="O36">
-        <v>80.08</v>
+        <v>1.02</v>
       </c>
       <c r="P36">
-        <v>19.92</v>
+        <v>7.1</v>
       </c>
       <c r="Q36">
-        <v>2.53</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="R36">
-        <v>14.09</v>
+        <v>9.58</v>
       </c>
       <c r="S36">
-        <v>11.23</v>
+        <v>11.06</v>
       </c>
       <c r="T36">
-        <v>27.16</v>
+        <v>1.67</v>
       </c>
       <c r="U36">
-        <v>17.09</v>
+        <v>5.66</v>
       </c>
       <c r="V36">
-        <v>14.98</v>
+        <v>22.4</v>
       </c>
       <c r="W36">
-        <v>12.91</v>
+        <v>14.9</v>
       </c>
       <c r="X36">
-        <v>23.34</v>
+        <v>18.15</v>
       </c>
       <c r="Y36">
-        <v>42.74</v>
+        <v>0.8</v>
       </c>
       <c r="Z36">
-        <v>23.18</v>
+        <v>0.12</v>
       </c>
       <c r="AA36">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>2.66</v>
+        <v>15.8</v>
       </c>
       <c r="AC36">
-        <v>2.43</v>
+        <v>48.72</v>
       </c>
       <c r="AD36">
-        <v>1.11</v>
+        <v>24.19</v>
       </c>
       <c r="AE36">
-        <v>1.02</v>
+        <v>7.16</v>
       </c>
       <c r="AF36">
-        <v>7.1</v>
-      </c>
-      <c r="AG36">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AH36">
-        <v>9.58</v>
-      </c>
-      <c r="AI36">
-        <v>11.06</v>
-      </c>
-      <c r="AJ36">
-        <v>1.67</v>
-      </c>
-      <c r="AK36">
-        <v>5.66</v>
-      </c>
-      <c r="AL36">
-        <v>22.4</v>
-      </c>
-      <c r="AM36">
-        <v>14.9</v>
-      </c>
-      <c r="AN36">
-        <v>18.15</v>
-      </c>
-      <c r="AO36">
-        <v>0.8</v>
-      </c>
-      <c r="AP36">
-        <v>0.12</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>15.8</v>
-      </c>
-      <c r="AS36">
-        <v>48.72</v>
-      </c>
-      <c r="AT36">
-        <v>24.19</v>
-      </c>
-      <c r="AU36">
-        <v>7.16</v>
-      </c>
-      <c r="AV36">
         <v>3.21</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>44131</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D37">
         <v>202110</v>
@@ -5818,10 +4042,10 @@
         <v>5058205490</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I37">
         <v>4723053500</v>
@@ -5830,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L37">
         <v>270744526</v>
@@ -5842,117 +4066,69 @@
         <v>58991</v>
       </c>
       <c r="O37">
-        <v>85.81999999999999</v>
+        <v>3.88</v>
       </c>
       <c r="P37">
-        <v>14.18</v>
+        <v>3.91</v>
       </c>
       <c r="Q37">
-        <v>7.54</v>
+        <v>13.28</v>
       </c>
       <c r="R37">
-        <v>9.619999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="S37">
-        <v>13.99</v>
+        <v>12.55</v>
       </c>
       <c r="T37">
-        <v>16</v>
+        <v>3.66</v>
       </c>
       <c r="U37">
-        <v>15.26</v>
+        <v>6.71</v>
       </c>
       <c r="V37">
-        <v>32.81</v>
+        <v>15.54</v>
       </c>
       <c r="W37">
-        <v>4.78</v>
+        <v>18.4</v>
       </c>
       <c r="X37">
-        <v>31.68</v>
+        <v>12.49</v>
       </c>
       <c r="Y37">
-        <v>41.06</v>
+        <v>0.43</v>
       </c>
       <c r="Z37">
-        <v>16.74</v>
+        <v>0.19</v>
       </c>
       <c r="AA37">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>1.97</v>
+        <v>18.37</v>
       </c>
       <c r="AC37">
-        <v>3.89</v>
+        <v>51.47</v>
       </c>
       <c r="AD37">
-        <v>2.96</v>
+        <v>15.94</v>
       </c>
       <c r="AE37">
-        <v>3.88</v>
+        <v>5.37</v>
       </c>
       <c r="AF37">
-        <v>3.91</v>
-      </c>
-      <c r="AG37">
-        <v>13.28</v>
-      </c>
-      <c r="AH37">
-        <v>9.58</v>
-      </c>
-      <c r="AI37">
-        <v>12.55</v>
-      </c>
-      <c r="AJ37">
-        <v>3.66</v>
-      </c>
-      <c r="AK37">
-        <v>6.71</v>
-      </c>
-      <c r="AL37">
-        <v>15.54</v>
-      </c>
-      <c r="AM37">
-        <v>18.4</v>
-      </c>
-      <c r="AN37">
-        <v>12.49</v>
-      </c>
-      <c r="AO37">
-        <v>0.43</v>
-      </c>
-      <c r="AP37">
-        <v>0.19</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>18.37</v>
-      </c>
-      <c r="AS37">
-        <v>51.47</v>
-      </c>
-      <c r="AT37">
-        <v>15.94</v>
-      </c>
-      <c r="AU37">
-        <v>5.37</v>
-      </c>
-      <c r="AV37">
         <v>8.220000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>46172</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>202111</v>
@@ -5964,10 +4140,10 @@
         <v>5058205490</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>4723053500</v>
@@ -5976,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L38">
         <v>283967411</v>
@@ -5988,117 +4164,69 @@
         <v>58426</v>
       </c>
       <c r="O38">
-        <v>83.97</v>
+        <v>2.07</v>
       </c>
       <c r="P38">
-        <v>16.03</v>
+        <v>2.46</v>
       </c>
       <c r="Q38">
-        <v>3.57</v>
+        <v>9.48</v>
       </c>
       <c r="R38">
-        <v>28.84</v>
+        <v>11.78</v>
       </c>
       <c r="S38">
-        <v>23.5</v>
+        <v>14.27</v>
       </c>
       <c r="T38">
-        <v>10.43</v>
+        <v>1.41</v>
       </c>
       <c r="U38">
-        <v>11.09</v>
+        <v>13.15</v>
       </c>
       <c r="V38">
-        <v>10.11</v>
+        <v>21.19</v>
       </c>
       <c r="W38">
-        <v>12.46</v>
+        <v>14.19</v>
       </c>
       <c r="X38">
-        <v>40.1</v>
+        <v>10.01</v>
       </c>
       <c r="Y38">
-        <v>33.49</v>
+        <v>0.18</v>
       </c>
       <c r="Z38">
-        <v>15.53</v>
+        <v>0.12</v>
       </c>
       <c r="AA38">
-        <v>4.54</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>2.98</v>
+        <v>15.49</v>
       </c>
       <c r="AC38">
-        <v>1.94</v>
+        <v>49.46</v>
       </c>
       <c r="AD38">
-        <v>1.41</v>
+        <v>19.7</v>
       </c>
       <c r="AE38">
-        <v>2.07</v>
+        <v>12.29</v>
       </c>
       <c r="AF38">
-        <v>2.46</v>
-      </c>
-      <c r="AG38">
-        <v>9.48</v>
-      </c>
-      <c r="AH38">
-        <v>11.78</v>
-      </c>
-      <c r="AI38">
-        <v>14.27</v>
-      </c>
-      <c r="AJ38">
-        <v>1.41</v>
-      </c>
-      <c r="AK38">
-        <v>13.15</v>
-      </c>
-      <c r="AL38">
-        <v>21.19</v>
-      </c>
-      <c r="AM38">
-        <v>14.19</v>
-      </c>
-      <c r="AN38">
-        <v>10.01</v>
-      </c>
-      <c r="AO38">
-        <v>0.18</v>
-      </c>
-      <c r="AP38">
-        <v>0.12</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>15.49</v>
-      </c>
-      <c r="AS38">
-        <v>49.46</v>
-      </c>
-      <c r="AT38">
-        <v>19.7</v>
-      </c>
-      <c r="AU38">
-        <v>12.29</v>
-      </c>
-      <c r="AV38">
         <v>2.76</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>48218</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>202112</v>
@@ -6110,10 +4238,10 @@
         <v>5058205490</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <v>4723053500</v>
@@ -6122,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39">
         <v>333760648</v>
@@ -6134,117 +4262,69 @@
         <v>64639</v>
       </c>
       <c r="O39">
-        <v>89.38</v>
+        <v>0.58</v>
       </c>
       <c r="P39">
-        <v>10.62</v>
+        <v>1.09</v>
       </c>
       <c r="Q39">
-        <v>2.96</v>
+        <v>7.45</v>
       </c>
       <c r="R39">
-        <v>21.32</v>
+        <v>17.56</v>
       </c>
       <c r="S39">
-        <v>14.19</v>
+        <v>13.72</v>
       </c>
       <c r="T39">
-        <v>21.39</v>
+        <v>0.88</v>
       </c>
       <c r="U39">
-        <v>18.76</v>
+        <v>3.91</v>
       </c>
       <c r="V39">
-        <v>13.72</v>
+        <v>20</v>
       </c>
       <c r="W39">
-        <v>7.67</v>
+        <v>22.36</v>
       </c>
       <c r="X39">
-        <v>35.1</v>
+        <v>12.45</v>
       </c>
       <c r="Y39">
-        <v>44.24</v>
+        <v>0.13</v>
       </c>
       <c r="Z39">
-        <v>15.07</v>
+        <v>1.19</v>
       </c>
       <c r="AA39">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>2.05</v>
+        <v>14.3</v>
       </c>
       <c r="AC39">
-        <v>2</v>
+        <v>36.98</v>
       </c>
       <c r="AD39">
-        <v>0.91</v>
+        <v>20.25</v>
       </c>
       <c r="AE39">
-        <v>0.58</v>
+        <v>20.99</v>
       </c>
       <c r="AF39">
-        <v>1.09</v>
-      </c>
-      <c r="AG39">
-        <v>7.45</v>
-      </c>
-      <c r="AH39">
-        <v>17.56</v>
-      </c>
-      <c r="AI39">
-        <v>13.72</v>
-      </c>
-      <c r="AJ39">
-        <v>0.88</v>
-      </c>
-      <c r="AK39">
-        <v>3.91</v>
-      </c>
-      <c r="AL39">
-        <v>20</v>
-      </c>
-      <c r="AM39">
-        <v>22.36</v>
-      </c>
-      <c r="AN39">
-        <v>12.45</v>
-      </c>
-      <c r="AO39">
-        <v>0.13</v>
-      </c>
-      <c r="AP39">
-        <v>1.19</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>14.3</v>
-      </c>
-      <c r="AS39">
-        <v>36.98</v>
-      </c>
-      <c r="AT39">
-        <v>20.25</v>
-      </c>
-      <c r="AU39">
-        <v>20.99</v>
-      </c>
-      <c r="AV39">
         <v>6.17</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>50258</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>202201</v>
@@ -6256,10 +4336,10 @@
         <v>5058205490</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>4723053500</v>
@@ -6268,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L40">
         <v>311599200</v>
@@ -6280,117 +4360,69 @@
         <v>66336</v>
       </c>
       <c r="O40">
-        <v>91.59</v>
+        <v>0.52</v>
       </c>
       <c r="P40">
-        <v>8.41</v>
+        <v>6</v>
       </c>
       <c r="Q40">
-        <v>2.37</v>
+        <v>11.22</v>
       </c>
       <c r="R40">
-        <v>18.81</v>
+        <v>12.18</v>
       </c>
       <c r="S40">
-        <v>19.44</v>
+        <v>5.49</v>
       </c>
       <c r="T40">
-        <v>9.800000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="U40">
-        <v>15.51</v>
+        <v>5.59</v>
       </c>
       <c r="V40">
-        <v>29.92</v>
+        <v>10.11</v>
       </c>
       <c r="W40">
-        <v>4.14</v>
+        <v>16.27</v>
       </c>
       <c r="X40">
-        <v>46.64</v>
+        <v>30.75</v>
       </c>
       <c r="Y40">
-        <v>31.99</v>
+        <v>0.62</v>
       </c>
       <c r="Z40">
-        <v>13.57</v>
+        <v>2.1</v>
       </c>
       <c r="AA40">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>2.89</v>
+        <v>10.28</v>
       </c>
       <c r="AC40">
-        <v>2.11</v>
+        <v>48.91</v>
       </c>
       <c r="AD40">
-        <v>1.3</v>
+        <v>24.28</v>
       </c>
       <c r="AE40">
-        <v>0.52</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF40">
-        <v>6</v>
-      </c>
-      <c r="AG40">
-        <v>11.22</v>
-      </c>
-      <c r="AH40">
-        <v>12.18</v>
-      </c>
-      <c r="AI40">
-        <v>5.49</v>
-      </c>
-      <c r="AJ40">
-        <v>1.87</v>
-      </c>
-      <c r="AK40">
-        <v>5.59</v>
-      </c>
-      <c r="AL40">
-        <v>10.11</v>
-      </c>
-      <c r="AM40">
-        <v>16.27</v>
-      </c>
-      <c r="AN40">
-        <v>30.75</v>
-      </c>
-      <c r="AO40">
-        <v>0.62</v>
-      </c>
-      <c r="AP40">
-        <v>2.1</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>10.28</v>
-      </c>
-      <c r="AS40">
-        <v>48.91</v>
-      </c>
-      <c r="AT40">
-        <v>24.28</v>
-      </c>
-      <c r="AU40">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV40">
         <v>5.02</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>52298</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>202202</v>
@@ -6402,10 +4434,10 @@
         <v>5058205490</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I41">
         <v>4723053500</v>
@@ -6414,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L41">
         <v>205408493</v>
@@ -6426,117 +4458,69 @@
         <v>49770</v>
       </c>
       <c r="O41">
-        <v>90.65000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="P41">
-        <v>9.35</v>
+        <v>3.61</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>8.82</v>
       </c>
       <c r="R41">
-        <v>19.65</v>
+        <v>16.1</v>
       </c>
       <c r="S41">
-        <v>17.68</v>
+        <v>10.21</v>
       </c>
       <c r="T41">
-        <v>10.91</v>
+        <v>1.62</v>
       </c>
       <c r="U41">
-        <v>23.51</v>
+        <v>6.09</v>
       </c>
       <c r="V41">
-        <v>21.02</v>
+        <v>13.99</v>
       </c>
       <c r="W41">
-        <v>4.24</v>
+        <v>22.32</v>
       </c>
       <c r="X41">
-        <v>27.82</v>
+        <v>16.45</v>
       </c>
       <c r="Y41">
-        <v>36.98</v>
+        <v>0.65</v>
       </c>
       <c r="Z41">
-        <v>18.55</v>
+        <v>0.73</v>
       </c>
       <c r="AA41">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>6.71</v>
+        <v>18.07</v>
       </c>
       <c r="AC41">
-        <v>5.72</v>
+        <v>42.56</v>
       </c>
       <c r="AD41">
-        <v>3.2</v>
+        <v>25.04</v>
       </c>
       <c r="AE41">
-        <v>0.8</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AF41">
-        <v>3.61</v>
-      </c>
-      <c r="AG41">
-        <v>8.82</v>
-      </c>
-      <c r="AH41">
-        <v>16.1</v>
-      </c>
-      <c r="AI41">
-        <v>10.21</v>
-      </c>
-      <c r="AJ41">
-        <v>1.62</v>
-      </c>
-      <c r="AK41">
-        <v>6.09</v>
-      </c>
-      <c r="AL41">
-        <v>13.99</v>
-      </c>
-      <c r="AM41">
-        <v>22.32</v>
-      </c>
-      <c r="AN41">
-        <v>16.45</v>
-      </c>
-      <c r="AO41">
-        <v>0.65</v>
-      </c>
-      <c r="AP41">
-        <v>0.73</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>18.07</v>
-      </c>
-      <c r="AS41">
-        <v>42.56</v>
-      </c>
-      <c r="AT41">
-        <v>25.04</v>
-      </c>
-      <c r="AU41">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AV41">
         <v>3.66</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>54338</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>202203</v>
@@ -6548,10 +4532,10 @@
         <v>5058205490</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I42">
         <v>4723053500</v>
@@ -6560,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L42">
         <v>206854017</v>
@@ -6572,117 +4556,69 @@
         <v>45477</v>
       </c>
       <c r="O42">
-        <v>77.26000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="P42">
-        <v>22.74</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="Q42">
-        <v>3.01</v>
+        <v>13.63</v>
       </c>
       <c r="R42">
-        <v>16.59</v>
+        <v>10.19</v>
       </c>
       <c r="S42">
-        <v>19.25</v>
+        <v>12.48</v>
       </c>
       <c r="T42">
-        <v>14.69</v>
+        <v>1.56</v>
       </c>
       <c r="U42">
-        <v>14.97</v>
+        <v>5.56</v>
       </c>
       <c r="V42">
-        <v>13.71</v>
+        <v>11.05</v>
       </c>
       <c r="W42">
-        <v>17.78</v>
+        <v>13.96</v>
       </c>
       <c r="X42">
-        <v>38.32</v>
+        <v>21.23</v>
       </c>
       <c r="Y42">
-        <v>30.7</v>
+        <v>0.36</v>
       </c>
       <c r="Z42">
-        <v>19.49</v>
+        <v>6.2</v>
       </c>
       <c r="AA42">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>1.6</v>
+        <v>13.15</v>
       </c>
       <c r="AC42">
-        <v>3.73</v>
+        <v>43.09</v>
       </c>
       <c r="AD42">
-        <v>2.41</v>
+        <v>26.83</v>
       </c>
       <c r="AE42">
-        <v>0.7</v>
+        <v>7.41</v>
       </c>
       <c r="AF42">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AG42">
-        <v>13.63</v>
-      </c>
-      <c r="AH42">
-        <v>10.19</v>
-      </c>
-      <c r="AI42">
-        <v>12.48</v>
-      </c>
-      <c r="AJ42">
-        <v>1.56</v>
-      </c>
-      <c r="AK42">
-        <v>5.56</v>
-      </c>
-      <c r="AL42">
-        <v>11.05</v>
-      </c>
-      <c r="AM42">
-        <v>13.96</v>
-      </c>
-      <c r="AN42">
-        <v>21.23</v>
-      </c>
-      <c r="AO42">
-        <v>0.36</v>
-      </c>
-      <c r="AP42">
-        <v>6.2</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>13.15</v>
-      </c>
-      <c r="AS42">
-        <v>43.09</v>
-      </c>
-      <c r="AT42">
-        <v>26.83</v>
-      </c>
-      <c r="AU42">
-        <v>7.41</v>
-      </c>
-      <c r="AV42">
         <v>2.97</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>56398</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>202204</v>
@@ -6694,10 +4630,10 @@
         <v>5058205490</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>4723053500</v>
@@ -6706,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L43">
         <v>342522084</v>
@@ -6718,117 +4654,69 @@
         <v>70709</v>
       </c>
       <c r="O43">
-        <v>71.06</v>
+        <v>0.88</v>
       </c>
       <c r="P43">
-        <v>28.94</v>
+        <v>2.74</v>
       </c>
       <c r="Q43">
-        <v>3.2</v>
+        <v>15.68</v>
       </c>
       <c r="R43">
-        <v>11.85</v>
+        <v>8.09</v>
       </c>
       <c r="S43">
-        <v>13.17</v>
+        <v>12.88</v>
       </c>
       <c r="T43">
-        <v>9.51</v>
+        <v>2.76</v>
       </c>
       <c r="U43">
-        <v>16.38</v>
+        <v>3.85</v>
       </c>
       <c r="V43">
-        <v>20.15</v>
+        <v>21.13</v>
       </c>
       <c r="W43">
-        <v>25.74</v>
+        <v>12.99</v>
       </c>
       <c r="X43">
-        <v>25.27</v>
+        <v>19.01</v>
       </c>
       <c r="Y43">
-        <v>48.88</v>
+        <v>0.78</v>
       </c>
       <c r="Z43">
-        <v>16.36</v>
+        <v>1.11</v>
       </c>
       <c r="AA43">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>4.24</v>
+        <v>15.44</v>
       </c>
       <c r="AC43">
-        <v>3.13</v>
+        <v>40.19</v>
       </c>
       <c r="AD43">
-        <v>1.15</v>
+        <v>20.44</v>
       </c>
       <c r="AE43">
-        <v>0.88</v>
+        <v>14.37</v>
       </c>
       <c r="AF43">
-        <v>2.74</v>
-      </c>
-      <c r="AG43">
-        <v>15.68</v>
-      </c>
-      <c r="AH43">
-        <v>8.09</v>
-      </c>
-      <c r="AI43">
-        <v>12.88</v>
-      </c>
-      <c r="AJ43">
-        <v>2.76</v>
-      </c>
-      <c r="AK43">
-        <v>3.85</v>
-      </c>
-      <c r="AL43">
-        <v>21.13</v>
-      </c>
-      <c r="AM43">
-        <v>12.99</v>
-      </c>
-      <c r="AN43">
-        <v>19.01</v>
-      </c>
-      <c r="AO43">
-        <v>0.78</v>
-      </c>
-      <c r="AP43">
-        <v>1.11</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>15.44</v>
-      </c>
-      <c r="AS43">
-        <v>40.19</v>
-      </c>
-      <c r="AT43">
-        <v>20.44</v>
-      </c>
-      <c r="AU43">
-        <v>14.37</v>
-      </c>
-      <c r="AV43">
         <v>7.67</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>58449</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D44">
         <v>202205</v>
@@ -6840,10 +4728,10 @@
         <v>5058205490</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I44">
         <v>4723053500</v>
@@ -6852,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L44">
         <v>311077041</v>
@@ -6864,105 +4752,57 @@
         <v>68517</v>
       </c>
       <c r="O44">
-        <v>82.98</v>
+        <v>0.79</v>
       </c>
       <c r="P44">
-        <v>17.02</v>
+        <v>4.37</v>
       </c>
       <c r="Q44">
-        <v>13.12</v>
+        <v>7.09</v>
       </c>
       <c r="R44">
-        <v>21.92</v>
+        <v>17.42</v>
       </c>
       <c r="S44">
-        <v>18.2</v>
+        <v>11.09</v>
       </c>
       <c r="T44">
-        <v>14.89</v>
+        <v>1.93</v>
       </c>
       <c r="U44">
-        <v>10.4</v>
+        <v>2.82</v>
       </c>
       <c r="V44">
-        <v>17.57</v>
+        <v>16.73</v>
       </c>
       <c r="W44">
-        <v>3.9</v>
+        <v>15.39</v>
       </c>
       <c r="X44">
-        <v>25.98</v>
+        <v>22.38</v>
       </c>
       <c r="Y44">
-        <v>49.04</v>
+        <v>0.42</v>
       </c>
       <c r="Z44">
-        <v>18.69</v>
+        <v>0.02</v>
       </c>
       <c r="AA44">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>2.34</v>
+        <v>18.25</v>
       </c>
       <c r="AC44">
-        <v>1.77</v>
+        <v>38.82</v>
       </c>
       <c r="AD44">
-        <v>1.6</v>
+        <v>19.04</v>
       </c>
       <c r="AE44">
-        <v>0.79</v>
+        <v>10.63</v>
       </c>
       <c r="AF44">
-        <v>4.37</v>
-      </c>
-      <c r="AG44">
-        <v>7.09</v>
-      </c>
-      <c r="AH44">
-        <v>17.42</v>
-      </c>
-      <c r="AI44">
-        <v>11.09</v>
-      </c>
-      <c r="AJ44">
-        <v>1.93</v>
-      </c>
-      <c r="AK44">
-        <v>2.82</v>
-      </c>
-      <c r="AL44">
-        <v>16.73</v>
-      </c>
-      <c r="AM44">
-        <v>15.39</v>
-      </c>
-      <c r="AN44">
-        <v>22.38</v>
-      </c>
-      <c r="AO44">
-        <v>0.42</v>
-      </c>
-      <c r="AP44">
-        <v>0.02</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>18.25</v>
-      </c>
-      <c r="AS44">
-        <v>38.82</v>
-      </c>
-      <c r="AT44">
-        <v>19.04</v>
-      </c>
-      <c r="AU44">
-        <v>10.63</v>
-      </c>
-      <c r="AV44">
         <v>12.83</v>
       </c>
     </row>
